--- a/test_accu/acc_time.xlsx
+++ b/test_accu/acc_time.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>datasets</t>
   </si>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>rxgb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgb_paper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rxgb_paper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -173,6 +181,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -483,51 +494,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="3" max="6" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="2"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -538,16 +557,22 @@
         <v>0.97080291970802923</v>
       </c>
       <c r="D3" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E3" s="3">
         <v>0.86861313868613099</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.48681545257568359</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>0.17768979072570801</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -558,16 +583,22 @@
         <v>0.75974025974025972</v>
       </c>
       <c r="D4" s="3">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.56493506493506496</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.10292649269104</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>8.5058212280273396E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -578,16 +609,22 @@
         <v>0.84846860981592376</v>
       </c>
       <c r="D5" s="3">
+        <v>0.877</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.40076900978940599</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="G5" s="3">
         <v>97.351222515106201</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>2007.69101905822</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -598,16 +635,22 @@
         <v>0.95480032545827398</v>
       </c>
       <c r="D6" s="3">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.87848698719152296</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="G6" s="3">
         <v>79.583115100860596</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>17.707820892333899</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -617,15 +660,23 @@
       <c r="C7" s="3">
         <v>0.75247399999999998</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>0.76</v>
+      </c>
       <c r="E7" s="3">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="G7" s="3">
         <v>2905.946287631989</v>
       </c>
-      <c r="F7" s="3">
+      <c r="H7" s="3">
         <v>24235.883937597198</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -636,16 +687,22 @@
         <v>0.96078559666743002</v>
       </c>
       <c r="D8" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E8" s="3">
         <v>0.80096182157228302</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G8" s="3">
         <v>28.664057970047001</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>50.792906284332197</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -656,16 +713,22 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="D9" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="E9" s="3">
         <v>0.2286</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G9" s="3">
         <v>7.2130124568939209</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>408.15569972991898</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -676,16 +739,22 @@
         <v>0.99051999999999996</v>
       </c>
       <c r="D10" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.40383999999999998</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G10" s="3">
         <v>56.311385631561279</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>4200.3372378349304</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -696,16 +765,22 @@
         <v>0.97729999999999995</v>
       </c>
       <c r="D11" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E11" s="3">
         <v>0.96630000000000005</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="G11" s="3">
         <v>228.6582236289978</v>
       </c>
-      <c r="F11" s="3">
+      <c r="H11" s="3">
         <v>11200.4984188079</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -716,16 +791,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="3">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="E12" s="3">
         <v>0.82199999999999995</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="G12" s="3">
         <v>40.85294771194458</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3430.0201685428601</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -736,23 +817,30 @@
         <v>0.99698492462311561</v>
       </c>
       <c r="D13" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.99447236180904497</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="G13" s="3">
         <v>10.215149164199831</v>
       </c>
-      <c r="F13" s="3">
+      <c r="H13" s="3">
         <v>889.67595052719105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>